--- a/docs/assets/disciplinas/LOQ4088.xlsx
+++ b/docs/assets/disciplinas/LOQ4088.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Aplicar os conceitos fundamentais relacionados aos processos físicos químicos, ampliando o conhecimento termodinâmico dos sistemas, isto é, a definição dos critérios de equilíbrio e de espontaneidade para misturas e reações químicas.</t>
+    <t>8554681 - Pedro Felipe Arce Castillo</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>8554681 - Pedro Felipe Arce Castillo</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Termodinâmica de soluções. Equilíbrio líquido  vapor. Equilíbrio de fases. Equilíbrio em reações químicas  Equilíbrio químico</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,34 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1- Termodinâmica de soluções 
-1.1- Relações fundamentais entre propriedades 
-1.2- O potencial químico 
-1.3- Fugacidade e coeficiente de fugacidade 
-1.4- A solução Ideal 
-1.5- Modelos para a energia de Gibbs 
-1.6- Propriedades de mistura 
-1.7- Efeitos térmicos em processos de mistura 
-2- Equilíbrio liquido  vapor 
-2.1- A natureza em equilíbrio 
-2.2- A regra das fases. Teorema de Duhem 
-2.3- Calculo dos pontos de orvalho e de bolha 
-2.4- Calculo de Flash 
-3- Equilíbrio de fases 
-3.1- Equilíbrio e estabilidade 
-3.2- Equilíbrio líquido-líquido 
-3.3- Equilíbrio líquido-líquido-vapor 
-3.4- Equilíbrio sólido-líquido 
-3.5- Equilíbrio sólido-vapor 
-3.6- Equilíbrio na adsorção de gases em sólidos 
-4- Equilíbrio em reações químicas  Equilíbrio químico 
-4.1- A variação de energia de Gibbs padrão e a constante de equilíbrio 
-4.2- Efeito da temperatura sobre a constante de equilíbrio 
-4.3- Avaliação das constantes de equilíbrio 
-4.4- Relação entre as constantes de equilíbrio e a composição 
-4.5- Conversões de equilíbrio em reações isoladas</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -131,30 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação será feita por meio de duas provas escritas (P1 e P2).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1 + P2)/2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>KORETSKY, M. D. Termodinâmica para Engenharia Química. 1 ed. LTC Editora, 2007. 
-MORAN, M. J.; SHAPIRO, H. N. Princípios de Termodinâmica para Engenharia. 1 ed. LTC Editora, 2009. 
-SANDLER, S. I., Chemical and Engineering Thermodynamics, 3rd ed., John Wiley &amp; Sons, 1999 
-SMITH, J.M.; VAN NESS, H.C.; Abott, M. M. Introdução à Termodinâmica da Engenharia Química. 7ª ed. LTC editora, 2007. 
-TERRON, L. R. Termodinâmica Química Aplicada. 1 ed. Editora Manole Ltda, 2009. 
-VAN WILEN, J. Sonntag, Richard. E. Fundamentos da Termodinâmica Clássica. 6 ed. 2004</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -517,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4088.xlsx
+++ b/docs/assets/disciplinas/LOQ4088.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Aplicar os conceitos fundamentais relacionados aos processos físicos químicos, ampliando o conhecimento termodinâmico dos sistemas, isto é, a definição dos critérios de equilíbrio e de espontaneidade para misturas e reações químicas.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>8554681 - Pedro Felipe Arce Castillo</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Termodinâmica de soluções. Equilíbrio líquido  vapor. Equilíbrio de fases. Equilíbrio em reações químicas  Equilíbrio químico</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,34 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1- Termodinâmica de soluções 
+1.1- Relações fundamentais entre propriedades 
+1.2- O potencial químico 
+1.3- Fugacidade e coeficiente de fugacidade 
+1.4- A solução Ideal 
+1.5- Modelos para a energia de Gibbs 
+1.6- Propriedades de mistura 
+1.7- Efeitos térmicos em processos de mistura 
+2- Equilíbrio liquido  vapor 
+2.1- A natureza em equilíbrio 
+2.2- A regra das fases. Teorema de Duhem 
+2.3- Calculo dos pontos de orvalho e de bolha 
+2.4- Calculo de Flash 
+3- Equilíbrio de fases 
+3.1- Equilíbrio e estabilidade 
+3.2- Equilíbrio líquido-líquido 
+3.3- Equilíbrio líquido-líquido-vapor 
+3.4- Equilíbrio sólido-líquido 
+3.5- Equilíbrio sólido-vapor 
+3.6- Equilíbrio na adsorção de gases em sólidos 
+4- Equilíbrio em reações químicas  Equilíbrio químico 
+4.1- A variação de energia de Gibbs padrão e a constante de equilíbrio 
+4.2- Efeito da temperatura sobre a constante de equilíbrio 
+4.3- Avaliação das constantes de equilíbrio 
+4.4- Relação entre as constantes de equilíbrio e a composição 
+4.5- Conversões de equilíbrio em reações isoladas</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +131,30 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação será feita por meio de duas provas escritas (P1 e P2).</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de duas provas escritas (P1 e P2).</t>
+    <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1 + P2)/2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1 + P2)/2</t>
+    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
+    <t>KORETSKY, M. D. Termodinâmica para Engenharia Química. 1 ed. LTC Editora, 2007. 
+MORAN, M. J.; SHAPIRO, H. N. Princípios de Termodinâmica para Engenharia. 1 ed. LTC Editora, 2009. 
+SANDLER, S. I., Chemical and Engineering Thermodynamics, 3rd ed., John Wiley &amp; Sons, 1999 
+SMITH, J.M.; VAN NESS, H.C.; Abott, M. M. Introdução à Termodinâmica da Engenharia Química. 7ª ed. LTC editora, 2007. 
+TERRON, L. R. Termodinâmica Química Aplicada. 1 ed. Editora Manole Ltda, 2009. 
+VAN WILEN, J. Sonntag, Richard. E. Fundamentos da Termodinâmica Clássica. 6 ed. 2004</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +517,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +642,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
